--- a/target/classes/triangleTestCases.xlsx
+++ b/target/classes/triangleTestCases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="18">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>

--- a/target/classes/triangleTestCases.xlsx
+++ b/target/classes/triangleTestCases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="18">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>

--- a/target/classes/triangleTestCases.xlsx
+++ b/target/classes/triangleTestCases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20359"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15898\Desktop\testPractice-master\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\github\testPractice\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE232F7-7E11-415E-B45D-B857DCE13FED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8813695-755B-4FF1-8D46-6C7A5D85D6A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,42 +55,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>等腰三角形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等边三角形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通三角形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不构成三角形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>含有非正数长度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
   </si>
   <si>
     <t>等腰三角形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>等边三角形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>普通三角形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>不构成三角形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>含有非正数长度</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>等腰三角形</t>
-  </si>
-  <si>
-    <t>等边三角形</t>
-  </si>
-  <si>
-    <t>普通三角形</t>
-  </si>
-  <si>
-    <t>不构成三角形</t>
+  </si>
+  <si>
+    <t>fail</t>
+  </si>
+  <si>
+    <t>长度超出范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度超出范围</t>
   </si>
 </sst>
 </file>
@@ -416,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -459,19 +465,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -482,19 +488,19 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -505,10 +511,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -517,7 +523,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -525,22 +531,22 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -548,13 +554,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>190</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
         <v>10</v>
@@ -563,7 +569,7 @@
         <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -571,22 +577,22 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -594,22 +600,22 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>201</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -617,22 +623,22 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>100</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
         <v>19</v>
       </c>
-      <c r="D9">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
-      </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -640,22 +646,22 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D10">
+        <v>90</v>
+      </c>
+      <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -663,22 +669,22 @@
         <v>10</v>
       </c>
       <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>105</v>
+      </c>
+      <c r="E11" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -686,22 +692,22 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -709,13 +715,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -724,7 +730,7 @@
         <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -732,22 +738,160 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>201</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>14</v>
       </c>
-      <c r="G14" t="s">
+      <c r="B15">
+        <v>100</v>
+      </c>
+      <c r="C15">
+        <v>100</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>110</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+      <c r="C17">
+        <v>100</v>
+      </c>
+      <c r="D17">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>13</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>100</v>
+      </c>
+      <c r="C18">
+        <v>95</v>
+      </c>
+      <c r="D18">
+        <v>190</v>
+      </c>
+      <c r="E18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>100</v>
+      </c>
+      <c r="C19">
+        <v>90</v>
+      </c>
+      <c r="D19">
+        <v>200</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>110</v>
+      </c>
+      <c r="D20">
+        <v>201</v>
+      </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/triangleTestCases.xlsx
+++ b/target/classes/triangleTestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\github\testPractice\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8813695-755B-4FF1-8D46-6C7A5D85D6A7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97A7836-2603-4AD4-907A-EF9B4934765C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="18">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,7 +71,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>含有非正数长度</t>
+    <t>长度超出范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度超出范围</t>
   </si>
   <si>
     <t>pass</t>
@@ -80,23 +84,13 @@
     <t>等腰三角形</t>
   </si>
   <si>
+    <t>普通三角形</t>
+  </si>
+  <si>
     <t>等边三角形</t>
   </si>
   <si>
-    <t>普通三角形</t>
-  </si>
-  <si>
     <t>不构成三角形</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>长度超出范围</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度超出范围</t>
   </si>
 </sst>
 </file>
@@ -425,7 +419,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -471,13 +465,13 @@
         <v>100</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -497,10 +491,10 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -523,7 +517,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -543,10 +537,10 @@
         <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -566,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -592,7 +586,7 @@
         <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -609,13 +603,13 @@
         <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -632,13 +626,13 @@
         <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -658,10 +652,10 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -684,7 +678,7 @@
         <v>15</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -707,7 +701,7 @@
         <v>15</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -727,10 +721,10 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -747,13 +741,13 @@
         <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -770,13 +764,13 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -796,13 +790,13 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -819,13 +813,13 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -845,10 +839,10 @@
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -865,13 +859,13 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -885,13 +879,13 @@
         <v>201</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/triangleTestCases.xlsx
+++ b/target/classes/triangleTestCases.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\github\testPractice\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E97A7836-2603-4AD4-907A-EF9B4934765C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74478E16-CEF4-4C88-A4AF-2915D6814EB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,31 +73,12 @@
   <si>
     <t>长度超出范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长度超出范围</t>
-  </si>
-  <si>
-    <t>pass</t>
-  </si>
-  <si>
-    <t>等腰三角形</t>
-  </si>
-  <si>
-    <t>普通三角形</t>
-  </si>
-  <si>
-    <t>等边三角形</t>
-  </si>
-  <si>
-    <t>不构成三角形</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,13 +400,13 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" customWidth="true" width="19.625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.25" collapsed="true"/>
+    <col min="5" max="5" width="19.625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -467,12 +448,6 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -490,12 +465,6 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -513,12 +482,6 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -536,12 +499,6 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -559,12 +516,6 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -582,12 +533,6 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -605,12 +550,6 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -628,12 +567,6 @@
       <c r="E9" t="s">
         <v>11</v>
       </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -651,12 +584,6 @@
       <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -673,12 +600,6 @@
       </c>
       <c r="E11" t="s">
         <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -697,12 +618,6 @@
       <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -720,12 +635,6 @@
       <c r="E13" t="s">
         <v>10</v>
       </c>
-      <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -743,12 +652,6 @@
       <c r="E14" t="s">
         <v>11</v>
       </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
@@ -766,12 +669,6 @@
       <c r="E15" t="s">
         <v>11</v>
       </c>
-      <c r="F15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -789,12 +686,6 @@
       <c r="E16" t="s">
         <v>10</v>
       </c>
-      <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -812,12 +703,6 @@
       <c r="E17" t="s">
         <v>7</v>
       </c>
-      <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -835,12 +720,6 @@
       <c r="E18" t="s">
         <v>9</v>
       </c>
-      <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -858,12 +737,6 @@
       <c r="E19" t="s">
         <v>10</v>
       </c>
-      <c r="F19" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -880,12 +753,6 @@
       </c>
       <c r="E20" t="s">
         <v>11</v>
-      </c>
-      <c r="F20" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/triangleTestCases.xlsx
+++ b/target/classes/triangleTestCases.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\github\testPractice\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74478E16-CEF4-4C88-A4AF-2915D6814EB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D081E55-8E6B-499B-B2FF-DCEFCD02EF06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,12 +73,31 @@
   <si>
     <t>长度超出范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度超出范围</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>等腰三角形</t>
+  </si>
+  <si>
+    <t>普通三角形</t>
+  </si>
+  <si>
+    <t>等边三角形</t>
+  </si>
+  <si>
+    <t>不构成三角形</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -400,13 +419,13 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="19.625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.25" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" customWidth="true" width="19.625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.25" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -448,6 +467,12 @@
       <c r="E2" t="s">
         <v>11</v>
       </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -465,6 +490,12 @@
       <c r="E3" t="s">
         <v>7</v>
       </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -482,6 +513,12 @@
       <c r="E4" t="s">
         <v>9</v>
       </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -499,6 +536,12 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -516,6 +559,12 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
@@ -533,6 +582,12 @@
       <c r="E7" t="s">
         <v>9</v>
       </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
@@ -550,6 +605,12 @@
       <c r="E8" t="s">
         <v>11</v>
       </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
@@ -567,6 +628,12 @@
       <c r="E9" t="s">
         <v>11</v>
       </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
@@ -584,6 +651,12 @@
       <c r="E10" t="s">
         <v>10</v>
       </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
@@ -601,6 +674,12 @@
       <c r="E11" t="s">
         <v>9</v>
       </c>
+      <c r="F11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
@@ -618,6 +697,12 @@
       <c r="E12" t="s">
         <v>9</v>
       </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
@@ -635,6 +720,12 @@
       <c r="E13" t="s">
         <v>10</v>
       </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
@@ -651,6 +742,12 @@
       </c>
       <c r="E14" t="s">
         <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -669,6 +766,12 @@
       <c r="E15" t="s">
         <v>11</v>
       </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
@@ -686,6 +789,12 @@
       <c r="E16" t="s">
         <v>10</v>
       </c>
+      <c r="F16" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
@@ -703,6 +812,12 @@
       <c r="E17" t="s">
         <v>7</v>
       </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
@@ -720,6 +835,12 @@
       <c r="E18" t="s">
         <v>9</v>
       </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
@@ -737,6 +858,12 @@
       <c r="E19" t="s">
         <v>10</v>
       </c>
+      <c r="F19" t="s">
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
@@ -753,6 +880,12 @@
       </c>
       <c r="E20" t="s">
         <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/target/classes/triangleTestCases.xlsx
+++ b/target/classes/triangleTestCases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="18">
   <si>
     <t>测试用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
